--- a/story/Story Summarization 剧情简述/Activity Story 活动剧情/act16d5 Who is Real 画中人 画中人/level_act16d5_05_beg.xlsx
+++ b/story/Story Summarization 剧情简述/Activity Story 活动剧情/act16d5 Who is Real 画中人 画中人/level_act16d5_05_beg.xlsx
@@ -35,11 +35,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Saga shares a thrilling story with Lava while shopkeeper Dawn offers what may very well be clues to the young operator. Kroos and Mr.Nothing also rejoin the others, but before they can relax, the sky begins to change.
+    <t xml:space="preserve">Saga shares a thrilling story with Lava while shopkeeper Dawn offers what may very well be clues to the young operator. Kroos and Mr. Nothing also rejoin the others, but before they can relax, the sky begins to change.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">사가는 라바에게 놀라운 이야기를 하고, 전당포의 여사장 라이는 온갖 방법을 동원하여 라바에게 단서를 암시한다. 우여곡절 끝에 크루스와 우요우도 일행에 합류하게 되지만, 채 안심하기도 전에 하늘색이 갑자기 변하기 시작하는데……
+    <t xml:space="preserve">사가는 라바에게 놀라운 이야기를 하고, 전당포 주인 라이는 온갖 방법을 동원하여 라바에게 단서를 암시한다. 우여곡절 끝에 크루스와 우요우도 일행에 합류하게 되지만, 채 안심하기도 전에 하늘색이 갑자기 변하기 시작하는데……
 </t>
   </si>
 </sst>
